--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_190.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_190.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min/5', 'C:min', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(22.981, 29.373)]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(47.0, 51.98)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>jaah_21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_36</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07546583850931676</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:47', '0:00:47.790000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:54.890000', '0:01:01.210000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'A:min7', 'D:7'], ['D:min', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'D:min7', 'G:7'], ['G:min', 'C', 'F']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.551, 23.76), (80.956, 85.176)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.048777, 37.312789), (44.859274, 49.758684)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2119565217391304</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['G:min', 'C', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[['E:min', 'A', 'D', 'D/2']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.98, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:54.681315', '0:01:02.158140')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:51.315598', '0:00:57.251357')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2015810276679842</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.9, 16.08)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(74.12, 86.54)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:32.233898', '0:00:36.959159')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1342905405405405</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0945054945054945</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:33.920000', '0:00:36.840000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:07.800000', '0:00:13.600000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42)]</t>
+          <t>[['F#/5', 'C#', 'F#/5'], ['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:00.391566', '0:02:07.006105'), ('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_246</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(55.641383, 61.040381)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Eb/3']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(26.006, 29.321)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.509, 10.013)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.83, 12.97), (2.77, 10.94)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(212.26, 222.96), (232.44, 245.22)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(4.605, 13.84)]</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.17907, 23.725555)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(154.76, 160.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:7', 'D:7', 'D:7'], ['C', 'C', 'A:7', 'A:7']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7'], ['Eb', 'Eb', 'C:7', 'C:7']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(44.98, 46.61), (43.71, 45.3)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.49, 34.94), (38.54, 45.67)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1009615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Gb', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'F']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.810375, 7.314387)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.03, 43.842)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3789473684210526</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.336043, 26.115071), (17.581738, 30.271443)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(131.14, 133.9), (128.54, 132.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
